--- a/tool/excels/handeling.xlsx
+++ b/tool/excels/handeling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/testexceltojson/excel-to-json-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Documents/Projecten/ICTU/GitHub/discipl-law-reg/tool/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0778C8E4-DFD5-6B4A-954A-8C66B2482909}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2294B33F-0335-C74E-86A6-FDDA32667F10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="tabelgenerator" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Handelingsframe!$A$1:$Q$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Handelingsframe!$A$1:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t>actor</t>
   </si>
@@ -61,9 +61,6 @@
     <t>versie (nr-vanaf-tot)</t>
   </si>
   <si>
-    <t>juriconnect bronverwijzing</t>
-  </si>
-  <si>
     <t>brontekst</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>&lt;&lt;indienen verzoek een besluit te nemen&gt;&gt;</t>
   </si>
   <si>
-    <t>handelingsframe.Awb.4:5</t>
-  </si>
-  <si>
     <t>precondition</t>
   </si>
   <si>
@@ -134,15 +128,6 @@
   </si>
   <si>
     <t>terminative postcondition</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.1:3.3</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.3.40</t>
-  </si>
-  <si>
-    <t>code handelingsframe</t>
   </si>
   <si>
     <t>version (nr-from-until)</t>
@@ -278,15 +263,6 @@
 4 Een besluit om de aanvraag niet te behandelen wordt aan de aanvrager bekendgemaakt binnen vier weken nadat de aanvraag is aangevuld of nadat de daarvoor gestelde termijn ongebruikt is verstreken.}</t>
   </si>
   <si>
-    <t>Nr</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.4:4.aanvragen</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.4:4.gegevens</t>
-  </si>
-  <si>
     <t>[belanghebbende(n)]</t>
   </si>
   <si>
@@ -341,9 +317,6 @@
   </si>
   <si>
     <t>[bezwaarschrift]</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>[besluit]
@@ -434,18 +407,6 @@
     <t>art. 6:4 lid 3 Awb</t>
   </si>
   <si>
-    <t>handelingsframe.Awb.6:4.1</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.6:4.3</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.7:11.2.nieuw</t>
-  </si>
-  <si>
-    <t>handelingsframe.Awb.7:11.2.herroepen</t>
-  </si>
-  <si>
     <t>act</t>
   </si>
   <si>
@@ -465,6 +426,18 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>sourcetext</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>juriconnect</t>
   </si>
 </sst>
 </file>
@@ -690,7 +663,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -739,12 +712,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,457 +1033,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="17"/>
-    <col min="2" max="6" width="20.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="50.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="50.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="3" customWidth="1"/>
+    <col min="1" max="5" width="20.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="50.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="50.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="21" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="19" t="s">
+      <c r="E1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="340" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
-        <v>2</v>
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="340" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>3</v>
+      <c r="M3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="340" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q7" xr:uid="{B95C58C0-98EE-144F-8F48-70B6A475C630}"/>
+  <autoFilter ref="A1:N7" xr:uid="{B95C58C0-98EE-144F-8F48-70B6A475C630}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1540,10 +1442,10 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1556,16 +1458,16 @@
     </row>
     <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1574,14 +1476,14 @@
     </row>
     <row r="6" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>VLOOKUP(C4,Handelingsframe!B2:O9882,1,FALSE)</f>
+        <f>VLOOKUP(C4,Handelingsframe!A2:M9882,1,FALSE)</f>
         <v>&lt;&lt;bekendmaken van een beschikking&gt;&gt;</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G6" s="9" t="e">
         <f>VLOOKUP(G4,Handelingsframe!#REF!,1,FALSE)</f>
@@ -1593,11 +1495,11 @@
         <v>0</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,2,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,2,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,2,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,2,FALSE))</f>
         <v>[bestuursorgaan]</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,2,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,2,FALSE))</f>
@@ -1609,11 +1511,11 @@
         <v>1</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,3,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,3,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,3,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,3,FALSE))</f>
         <v>[bekendmaken]</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G8" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,3,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,3,FALSE))</f>
@@ -1625,11 +1527,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,4,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,4,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,4,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,4,FALSE))</f>
         <v>[besluit]</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G9" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,4,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,4,FALSE))</f>
@@ -1641,11 +1543,11 @@
         <v>3</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,5,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,5,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,5,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,5,FALSE))</f>
         <v>[belanghebbende(n)]</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G10" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,5,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,5,FALSE))</f>
@@ -1657,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,6,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,6,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,6,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,6,FALSE))</f>
         <v>[besluit]
 EN
 (
@@ -1677,7 +1579,7 @@
 )</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,6,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,6,FALSE))</f>
@@ -1689,11 +1591,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="11" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,7,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,7,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,7,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,7,FALSE))</f>
         <v>[besluit treedt in werking]</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="11" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,7,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,7,FALSE))</f>
@@ -1705,7 +1607,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="13" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,8,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,8,FALSE))</f>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,8,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,8,FALSE))</f>
         <v>[aanvraag];
 &lt;schriftelijk indienen aanvraag&gt;;
 &lt;aanvraag indienen bij bevoegd bestuursorgaan&gt;;
@@ -1716,7 +1618,7 @@
 &lt;beschikking geven binnen termijn&gt;</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="13" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,8,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,8,FALSE))</f>
@@ -1725,24 +1627,24 @@
     </row>
     <row r="14" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15"/>
       <c r="F14" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="22" t="s">
-        <v>78</v>
+      <c r="B15" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,9,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,9,FALSE))</f>
-        <v>handelingsframe.Awb.3.40</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>71</v>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,9,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,9,FALSE))</f>
+        <v>art. 3:40 Awb</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,9,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,9,FALSE))</f>
@@ -1750,31 +1652,31 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>77</v>
+      <c r="B16" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,10,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,10,FALSE))</f>
-        <v>art. 3:40 Awb</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>82</v>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,10,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,10,FALSE))</f>
+        <v>2-[19940101]-[jjjjmmdd]</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,10,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,10,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,11,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,11,FALSE))</f>
-        <v>2-[19940101]-[jjjjmmdd]</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>36</v>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,11,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,11,FALSE))</f>
+        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=3&amp;afdeling=3.6&amp;artikel=3:40&amp;z=2017-04-01&amp;g=2017-04-01</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="G17" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,11,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,11,FALSE))</f>
@@ -1782,49 +1684,49 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="22" t="s">
-        <v>79</v>
+      <c r="B18" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,12,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,12,FALSE))</f>
-        <v>jci1.3:c:BWBR0005537&amp;hoofdstuk=3&amp;afdeling=3.6&amp;artikel=3:40&amp;z=2017-04-01&amp;g=2017-04-01</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>37</v>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,12,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,12,FALSE))</f>
+        <v>{Een besluit treedt niet in werking voordat het is bekendgemaakt.}</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,12,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,12,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="22" t="s">
-        <v>9</v>
+    <row r="19" spans="2:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="B19" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,13,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,13,FALSE))</f>
-        <v>{Een besluit treedt niet in werking voordat het is bekendgemaakt.}</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>38</v>
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,13,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,13,FALSE))</f>
+        <v>Artikel 3.40 Awb impliceert dat het bestuursorgaan dat bevoegd is een besluit te nemen, ook bevoegd is het besluit bekend maken. Ook al staat dat er niet expliciet, dat is de interpretatie die hier gekozen is.
+Het kan natuurlijk altijd dat er regels zijn die andere(n) (bestuursorga(a)n(en)) toestaan om een besluit bekend te maken, of regels die de bevoegdheid om besluiten bekend te maken beperken. Die regels hebben we nog niet gevonden.
+Artikel 3.41 Awb gaat over de wijze waarop het bekendmaken gebeurt. Die regels zijn verwerkt ijn de preconditie.</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,13,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,13,FALSE))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="238" x14ac:dyDescent="0.2">
-      <c r="B20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="16" t="str">
-        <f>IF((VLOOKUP(C4,Handelingsframe!B2:O9882,14,FALSE))="","",VLOOKUP(C4,Handelingsframe!B2:O9882,14,FALSE))</f>
-        <v>Artikel 3.40 Awb impliceert dat het bestuursorgaan dat bevoegd is een besluit te nemen, ook bevoegd is het besluit bekend maken. Ook al staat dat er niet expliciet, dat is de interpretatie die hier gekozen is.
-Het kan natuurlijk altijd dat er regels zijn die andere(n) (bestuursorga(a)n(en)) toestaan om een besluit bekend te maken, of regels die de bevoegdheid om besluiten bekend te maken beperken. Die regels hebben we nog niet gevonden.
-Artikel 3.41 Awb gaat over de wijze waarop het bekendmaken gebeurt. Die regels zijn verwerkt ijn de preconditie.</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>39</v>
+    <row r="20" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="e">
+        <f>IF((VLOOKUP(C4,Handelingsframe!A2:M9882,14,FALSE))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,14,FALSE))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="16" t="e">
         <f>IF((VLOOKUP(G4,Handelingsframe!#REF!,14,FALSE))="","",VLOOKUP(G4,Handelingsframe!#REF!,14,FALSE))</f>

--- a/tool/excels/handeling.xlsx
+++ b/tool/excels/handeling.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t xml:space="preserve">act</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">[aanvraag]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">belanghebbende</t>
   </si>
   <si>
     <t xml:space="preserve">[aanvraag is geheel of gedeeltelijk geweigerd op grond van artikel 2:15 Awb]</t>
@@ -682,10 +679,10 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -827,7 +824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="340" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="270.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -841,229 +838,229 @@
         <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1083,7 @@
   </sheetPr>
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1103,10 +1100,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,16 +1116,16 @@
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,14 +1134,14 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="11" t="e">
         <f aca="false">VLOOKUP(C4,Handelingsframe!A2:M9882,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="11" t="e">
         <f aca="false">VLOOKUP(G4,handelingsframe!#ref!,1,0)</f>
@@ -1160,7 +1157,7 @@
         <v>#N/A</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,2,0))="","",VLOOKUP(G4,handelingsframe!#ref!,2,0))</f>
@@ -1169,14 +1166,14 @@
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="13" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,3,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,3,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,3,0))="","",VLOOKUP(G4,handelingsframe!#ref!,3,0))</f>
@@ -1192,7 +1189,7 @@
         <v>#N/A</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,4,0))="","",VLOOKUP(G4,handelingsframe!#ref!,4,0))</f>
@@ -1201,14 +1198,14 @@
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="13" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,5,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,5,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,5,0))="","",VLOOKUP(G4,handelingsframe!#ref!,5,0))</f>
@@ -1217,14 +1214,14 @@
     </row>
     <row r="11" customFormat="false" ht="323" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="13" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,6,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,6,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,6,0))="","",VLOOKUP(G4,handelingsframe!#ref!,6,0))</f>
@@ -1233,14 +1230,14 @@
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="13" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,7,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,7,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" s="13" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,7,0))="","",VLOOKUP(G4,handelingsframe!#ref!,7,0))</f>
@@ -1249,14 +1246,14 @@
     </row>
     <row r="13" customFormat="false" ht="137" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="15" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,8,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,8,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="15" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,8,0))="","",VLOOKUP(G4,handelingsframe!#ref!,8,0))</f>
@@ -1265,24 +1262,24 @@
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="17"/>
       <c r="F14" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,9,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,9,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,9,0))="","",VLOOKUP(G4,handelingsframe!#ref!,9,0))</f>
@@ -1291,14 +1288,14 @@
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,10,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,10,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,10,0))="","",VLOOKUP(G4,handelingsframe!#ref!,10,0))</f>
@@ -1307,14 +1304,14 @@
     </row>
     <row r="17" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,11,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,11,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,11,0))="","",VLOOKUP(G4,handelingsframe!#ref!,11,0))</f>
@@ -1323,14 +1320,14 @@
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,12,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,12,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G18" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,12,0))="","",VLOOKUP(G4,handelingsframe!#ref!,12,0))</f>
@@ -1339,14 +1336,14 @@
     </row>
     <row r="19" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,13,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,13,0))</f>
         <v>#N/A</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,13,0))="","",VLOOKUP(G4,handelingsframe!#ref!,13,0))</f>
@@ -1355,14 +1352,14 @@
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="19" t="e">
         <f aca="false">IF((VLOOKUP(C4,Handelingsframe!A2:M9882,14,0))="","",VLOOKUP(C4,Handelingsframe!A2:M9882,14,0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="19" t="e">
         <f aca="false">IF((VLOOKUP(G4,handelingsframe!#ref!,14,0))="","",VLOOKUP(G4,handelingsframe!#ref!,14,0))</f>
